--- a/biology/Médecine/Jean_Delay_(psychiatre,_écrivain)/Jean_Delay_(psychiatre,_écrivain).xlsx
+++ b/biology/Médecine/Jean_Delay_(psychiatre,_écrivain)/Jean_Delay_(psychiatre,_écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Delay, né le 14 novembre 1907 à Bayonne et mort le 29 mai 1987 à Paris, est un psychiatre, neurologue et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Maurice Delay, chirurgien et maire de Bayonne, neveu de Jean Delay, archevêque de Marseille, Jean Delay étudie la médecine à Paris[1]. Reçu interne des hôpitaux à 20 ans et, marqué par l’enseignement de Pierre Janet et de Georges Dumas, il s’oriente vers la psychiatrie. Il se spécialise également en neurologie à la Salpêtrière. Il consacre sa thèse de doctorat aux astéréognosies en 1935.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Maurice Delay, chirurgien et maire de Bayonne, neveu de Jean Delay, archevêque de Marseille, Jean Delay étudie la médecine à Paris. Reçu interne des hôpitaux à 20 ans et, marqué par l’enseignement de Pierre Janet et de Georges Dumas, il s’oriente vers la psychiatrie. Il se spécialise également en neurologie à la Salpêtrière. Il consacre sa thèse de doctorat aux astéréognosies en 1935.
 Il entreprend ensuite des études de philosophie à la Sorbonne et soutient en 1942 une thèse de lettres sur les maladies de la mémoire. Il faut noter qu'il a examiné Rudolf Hess durant le procès de Nuremberg, il a alors relevé une « amnésie hystérique ».
-Il reçoit enfin une formation en psychiatrie clinique auprès d'Henri Ey au Centre hospitalier Sainte-Anne. C’est dans cet établissement qu’il devient titulaire de la chaire de la clinique des maladies mentales en 1946[1]. Il y poursuit de nombreuses études cliniques et psychopharmacologiques, en particulier sur la chlorpromazine, chef de file des futurs neuroleptiques, dont il étudie les effets sédatifs sur les états d’agitation dès 1952 avec J. M. Harl et P. Deniker. Considérant ce médicament d’abord comme un « ganglio-plégique » aux Journées thérapeutiques de Paris, il en fait ensuite un psychotrope à action centrale, qu’il appellera d’abord « neuroplégique », puis finalement « neuroleptique ».
-En 1957, il a élaboré avec son assistant Pierre Deniker une classification des substances psychotropes[1] qui sera validée par le congrès mondial de psychiatrie en 1961. Cette classification distingue les substances psychotropes - des médicaments et aussi des drogues - en fonction de leur activité sur le système nerveux central.
-Psychanalyse
-Il a été analysé par Édouard Pichon mais après cela il ne s'est guère montré favorable aux thèses de la psychanalyse.
+Il reçoit enfin une formation en psychiatrie clinique auprès d'Henri Ey au Centre hospitalier Sainte-Anne. C’est dans cet établissement qu’il devient titulaire de la chaire de la clinique des maladies mentales en 1946. Il y poursuit de nombreuses études cliniques et psychopharmacologiques, en particulier sur la chlorpromazine, chef de file des futurs neuroleptiques, dont il étudie les effets sédatifs sur les états d’agitation dès 1952 avec J. M. Harl et P. Deniker. Considérant ce médicament d’abord comme un « ganglio-plégique » aux Journées thérapeutiques de Paris, il en fait ensuite un psychotrope à action centrale, qu’il appellera d’abord « neuroplégique », puis finalement « neuroleptique ».
+En 1957, il a élaboré avec son assistant Pierre Deniker une classification des substances psychotropes qui sera validée par le congrès mondial de psychiatrie en 1961. Cette classification distingue les substances psychotropes - des médicaments et aussi des drogues - en fonction de leur activité sur le système nerveux central.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvres littéraires</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brillant écrivain, il est élu à l’Académie française en 1959[1] et laisse des études biographiques remarquables sur la Jeunesse d’André Gide (1956-1957) et sur ses ancêtres maternels dans les quatre volumes de Avant-Mémoire (1979-1986)[1]. Son essai Psychiatrie et psychologie de L'Immoraliste lui a valu le Grand Prix de la critique[1]. Il a rédigé une pertinente et longue préface — en réalité une profonde analyse psychologique — au dernier roman de Henry de Montherlant : Un Assassin est mon maître qui traite du cas psychiatrique d'Exupère, son anti-héros (43 pages in La Pléiade, Montherlant, romans II).
+          <t>Psychanalyse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été analysé par Édouard Pichon mais après cela il ne s'est guère montré favorable aux thèses de la psychanalyse.
 </t>
         </is>
       </c>
@@ -560,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Postérité</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La totalité des archives de Jean Delay, de ses manuscrits, de correspondances reçues et adressées, de ses livres et publications, de livres dédicacés par ses amis, de documents personnels, d'archives de presse et d'archives photographiques est conservé à la Bibliothèque littéraire Jacques Doucet à la donation de Claude Delay et Florence Delay[2].
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brillant écrivain, il est élu à l’Académie française en 1959 et laisse des études biographiques remarquables sur la Jeunesse d’André Gide (1956-1957) et sur ses ancêtres maternels dans les quatre volumes de Avant-Mémoire (1979-1986). Son essai Psychiatrie et psychologie de L'Immoraliste lui a valu le Grand Prix de la critique. Il a rédigé une pertinente et longue préface — en réalité une profonde analyse psychologique — au dernier roman de Henry de Montherlant : Un Assassin est mon maître qui traite du cas psychiatrique d'Exupère, son anti-héros (43 pages in La Pléiade, Montherlant, romans II).
 </t>
         </is>
       </c>
@@ -591,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +626,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Entourage</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Delay est le père de Florence Delay, de l'Académie française, et de Claude Delay, romancière et psychanalyste.
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La totalité des archives de Jean Delay, de ses manuscrits, de correspondances reçues et adressées, de ses livres et publications, de livres dédicacés par ses amis, de documents personnels, d'archives de presse et d'archives photographiques est conservé à la Bibliothèque littéraire Jacques Doucet à la donation de Claude Delay et Florence Delay.
 </t>
         </is>
       </c>
@@ -622,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,44 +659,81 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Entourage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Delay est le père de Florence Delay, de l'Académie française, et de Claude Delay, romancière et psychanalyste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
  Grand officier de l'ordre national du Mérite
  Commandeur de l'ordre des Arts et des Lettres
  Commandeur de l'ordre de la Santé publique
-Élu à l'Académie française en 1959, succédant à Georges Lecomte au fauteuil no 17[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+Élu à l'Académie française en 1959, succédant à Georges Lecomte au fauteuil no 17.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Delay_(psychiatre,_écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Delay_(psychiatre,_%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Ondes cérébrales et la psychologie, Presses universitaires de France (PUF), 1942
 Les Dissolutions de la mémoire, Préface de Pierre Janet, Presses universitaires de France, 1942
